--- a/Output/Варочные панели ВСТР.xlsx
+++ b/Output/Варочные панели ВСТР.xlsx
@@ -7816,6 +7816,9 @@
       <c r="L97" t="s">
         <v>51</v>
       </c>
+      <c r="M97" t="s">
+        <v>215</v>
+      </c>
       <c r="N97" t="s">
         <v>90</v>
       </c>
@@ -7824,6 +7827,9 @@
       </c>
       <c r="P97" t="s">
         <v>37</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>50</v>
       </c>
       <c r="R97" t="s">
         <v>38</v>

--- a/Output/Варочные панели ВСТР.xlsx
+++ b/Output/Варочные панели ВСТР.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>Артикул</t>
   </si>
@@ -373,6 +373,12 @@
     <t>DTI1135BJ</t>
   </si>
   <si>
+    <t>независимые</t>
+  </si>
+  <si>
+    <t>индукционные</t>
+  </si>
+  <si>
     <t>DTI1167XE</t>
   </si>
   <si>
@@ -430,9 +436,15 @@
     <t>CE291111</t>
   </si>
   <si>
+    <t>электрические</t>
+  </si>
+  <si>
     <t>CG261210</t>
   </si>
   <si>
+    <t>газовые</t>
+  </si>
+  <si>
     <t>CG291210</t>
   </si>
   <si>
@@ -464,6 +476,18 @@
   </si>
   <si>
     <t>CV282110</t>
+  </si>
+  <si>
+    <t>VG491211</t>
+  </si>
+  <si>
+    <t>VI462111</t>
+  </si>
+  <si>
+    <t>VI482111</t>
+  </si>
+  <si>
+    <t>VI492111</t>
   </si>
   <si>
     <t>KM2010</t>
@@ -1015,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3935,9 +3959,15 @@
       <c r="F39" t="s">
         <v>29</v>
       </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" t="s">
+        <v>32</v>
+      </c>
       <c r="J39" t="s"/>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -3957,7 +3987,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -3966,7 +3996,7 @@
         <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -3990,7 +4020,7 @@
         <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M40" t="s">
         <v>34</v>
@@ -4034,7 +4064,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -4043,7 +4073,7 @@
         <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
@@ -4051,9 +4081,15 @@
       <c r="F41" t="s">
         <v>29</v>
       </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s"/>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
       <c r="J41" t="s"/>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4073,7 +4109,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -4082,7 +4118,7 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -4150,7 +4186,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -4159,7 +4195,7 @@
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
@@ -4227,7 +4263,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -4236,7 +4272,7 @@
         <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
@@ -4304,7 +4340,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -4313,7 +4349,7 @@
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -4346,10 +4382,10 @@
         <v>108</v>
       </c>
       <c r="O45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P45" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q45" t="s">
         <v>32</v>
@@ -4376,12 +4412,12 @@
         <v>40</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -4390,7 +4426,7 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
@@ -4455,7 +4491,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -4464,7 +4500,7 @@
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
@@ -4529,16 +4565,16 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
@@ -4600,16 +4636,16 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -4633,13 +4669,13 @@
         <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s">
         <v>34</v>
       </c>
       <c r="N49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O49" t="s">
         <v>65</v>
@@ -4672,21 +4708,21 @@
         <v>40</v>
       </c>
       <c r="Y49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -4710,13 +4746,13 @@
         <v>30</v>
       </c>
       <c r="L50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s">
         <v>34</v>
       </c>
       <c r="N50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O50" t="s">
         <v>65</v>
@@ -4749,21 +4785,21 @@
         <v>40</v>
       </c>
       <c r="Y50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
         <v>28</v>
@@ -4771,9 +4807,15 @@
       <c r="F51" t="s">
         <v>29</v>
       </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s"/>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
       <c r="J51" t="s"/>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4793,16 +4835,16 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -4810,9 +4852,15 @@
       <c r="F52" t="s">
         <v>29</v>
       </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s"/>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" t="s">
+        <v>61</v>
+      </c>
       <c r="J52" t="s"/>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -4832,16 +4880,16 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
         <v>28</v>
@@ -4849,9 +4897,15 @@
       <c r="F53" t="s">
         <v>29</v>
       </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s"/>
+      <c r="G53" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
       <c r="J53" t="s"/>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -4871,16 +4925,16 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
@@ -4888,9 +4942,15 @@
       <c r="F54" t="s">
         <v>29</v>
       </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s"/>
+      <c r="G54" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" t="s">
+        <v>61</v>
+      </c>
       <c r="J54" t="s"/>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -4910,16 +4970,16 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
         <v>28</v>
@@ -4984,16 +5044,16 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
         <v>28</v>
@@ -5017,13 +5077,13 @@
         <v>30</v>
       </c>
       <c r="L56" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M56" t="s">
         <v>34</v>
       </c>
       <c r="N56" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O56" t="s">
         <v>36</v>
@@ -5050,7 +5110,7 @@
         <v>40</v>
       </c>
       <c r="W56" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X56" t="s">
         <v>40</v>
@@ -5061,16 +5121,16 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
         <v>28</v>
@@ -5094,13 +5154,13 @@
         <v>30</v>
       </c>
       <c r="L57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M57" t="s">
         <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O57" t="s">
         <v>65</v>
@@ -5115,7 +5175,7 @@
         <v>38</v>
       </c>
       <c r="S57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T57" t="s">
         <v>40</v>
@@ -5138,16 +5198,16 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
         <v>28</v>
@@ -5155,9 +5215,15 @@
       <c r="F58" t="s">
         <v>29</v>
       </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s"/>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
       <c r="J58" t="s"/>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5177,16 +5243,16 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
@@ -5194,9 +5260,15 @@
       <c r="F59" t="s">
         <v>29</v>
       </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s"/>
+      <c r="G59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" t="s">
+        <v>32</v>
+      </c>
       <c r="J59" t="s"/>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5216,16 +5288,16 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
         <v>28</v>
@@ -5234,75 +5306,43 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I60" t="s">
         <v>61</v>
       </c>
-      <c r="J60" t="s">
-        <v>152</v>
-      </c>
-      <c r="K60" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" t="s">
-        <v>95</v>
-      </c>
-      <c r="M60" t="s">
-        <v>53</v>
-      </c>
-      <c r="N60" t="s">
-        <v>35</v>
-      </c>
-      <c r="O60" t="s">
-        <v>36</v>
-      </c>
-      <c r="P60" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" t="s">
-        <v>38</v>
-      </c>
-      <c r="S60" t="s">
-        <v>45</v>
-      </c>
-      <c r="T60" t="s">
-        <v>40</v>
-      </c>
-      <c r="U60" t="s">
-        <v>46</v>
-      </c>
-      <c r="V60" t="s">
-        <v>46</v>
-      </c>
-      <c r="W60" t="s">
-        <v>47</v>
-      </c>
-      <c r="X60" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>48</v>
-      </c>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="s"/>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
@@ -5311,75 +5351,43 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="I61" t="s">
-        <v>61</v>
-      </c>
-      <c r="J61" t="s">
-        <v>152</v>
-      </c>
-      <c r="K61" t="s">
-        <v>30</v>
-      </c>
-      <c r="L61" t="s">
-        <v>55</v>
-      </c>
-      <c r="M61" t="s">
-        <v>53</v>
-      </c>
-      <c r="N61" t="s">
-        <v>35</v>
-      </c>
-      <c r="O61" t="s">
-        <v>65</v>
-      </c>
-      <c r="P61" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>32</v>
-      </c>
-      <c r="R61" t="s">
-        <v>38</v>
-      </c>
-      <c r="S61" t="s">
-        <v>45</v>
-      </c>
-      <c r="T61" t="s">
-        <v>40</v>
-      </c>
-      <c r="U61" t="s">
-        <v>46</v>
-      </c>
-      <c r="V61" t="s">
-        <v>46</v>
-      </c>
-      <c r="W61" t="s">
-        <v>47</v>
-      </c>
-      <c r="X61" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>48</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="s"/>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
         <v>28</v>
@@ -5388,59 +5396,30 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I62" t="s">
         <v>32</v>
       </c>
-      <c r="J62" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" t="s">
-        <v>30</v>
-      </c>
-      <c r="L62" t="s">
-        <v>155</v>
-      </c>
-      <c r="M62" t="s">
-        <v>53</v>
-      </c>
-      <c r="N62" t="s">
-        <v>156</v>
-      </c>
-      <c r="O62" t="s">
-        <v>36</v>
-      </c>
-      <c r="P62" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>32</v>
-      </c>
-      <c r="R62" t="s">
-        <v>38</v>
-      </c>
-      <c r="S62" t="s">
-        <v>39</v>
-      </c>
-      <c r="T62" t="s">
-        <v>40</v>
-      </c>
-      <c r="U62" t="s">
-        <v>40</v>
-      </c>
-      <c r="V62" t="s">
-        <v>40</v>
-      </c>
-      <c r="W62" t="s">
-        <v>83</v>
-      </c>
-      <c r="X62" t="s">
-        <v>40</v>
-      </c>
+      <c r="J62" t="s"/>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="s"/>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
@@ -5450,7 +5429,7 @@
         <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
         <v>157</v>
@@ -5462,59 +5441,30 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="I63" t="s">
         <v>32</v>
       </c>
-      <c r="J63" t="s">
-        <v>31</v>
-      </c>
-      <c r="K63" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" t="s">
-        <v>81</v>
-      </c>
-      <c r="M63" t="s">
-        <v>53</v>
-      </c>
-      <c r="N63" t="s">
-        <v>59</v>
-      </c>
-      <c r="O63" t="s">
-        <v>36</v>
-      </c>
-      <c r="P63" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>32</v>
-      </c>
-      <c r="R63" t="s">
-        <v>38</v>
-      </c>
-      <c r="S63" t="s">
-        <v>39</v>
-      </c>
-      <c r="T63" t="s">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s">
-        <v>83</v>
-      </c>
-      <c r="X63" t="s">
-        <v>40</v>
-      </c>
+      <c r="J63" t="s"/>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="s"/>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
@@ -5524,7 +5474,7 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
         <v>158</v>
@@ -5539,28 +5489,28 @@
         <v>30</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J64" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s">
         <v>30</v>
       </c>
       <c r="L64" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M64" t="s">
         <v>53</v>
       </c>
       <c r="N64" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O64" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P64" t="s">
         <v>37</v>
@@ -5572,22 +5522,25 @@
         <v>38</v>
       </c>
       <c r="S64" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T64" t="s">
         <v>40</v>
       </c>
       <c r="U64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="V64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W64" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="X64" t="s">
         <v>40</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5598,7 +5551,7 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
         <v>161</v>
@@ -5613,31 +5566,31 @@
         <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J65" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s">
         <v>30</v>
       </c>
       <c r="L65" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="M65" t="s">
         <v>53</v>
       </c>
       <c r="N65" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="O65" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q65" t="s">
         <v>32</v>
@@ -5646,39 +5599,39 @@
         <v>38</v>
       </c>
       <c r="S65" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T65" t="s">
         <v>40</v>
       </c>
       <c r="U65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="V65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W65" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="X65" t="s">
         <v>40</v>
       </c>
       <c r="Y65" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
         <v>28</v>
@@ -5690,7 +5643,7 @@
         <v>30</v>
       </c>
       <c r="H66" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I66" t="s">
         <v>32</v>
@@ -5702,19 +5655,19 @@
         <v>30</v>
       </c>
       <c r="L66" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="M66" t="s">
         <v>53</v>
       </c>
       <c r="N66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O66" t="s">
         <v>36</v>
       </c>
       <c r="P66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q66" t="s">
         <v>32</v>
@@ -5735,27 +5688,24 @@
         <v>40</v>
       </c>
       <c r="W66" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="X66" t="s">
         <v>40</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
         <v>28</v>
@@ -5779,13 +5729,13 @@
         <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="M67" t="s">
         <v>53</v>
       </c>
       <c r="N67" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="O67" t="s">
         <v>36</v>
@@ -5800,7 +5750,7 @@
         <v>38</v>
       </c>
       <c r="S67" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="T67" t="s">
         <v>40</v>
@@ -5812,7 +5762,7 @@
         <v>40</v>
       </c>
       <c r="W67" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="X67" t="s">
         <v>40</v>
@@ -5820,46 +5770,46 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="C68" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" t="s">
         <v>167</v>
-      </c>
-      <c r="D68" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" t="s">
-        <v>28</v>
-      </c>
-      <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s">
-        <v>42</v>
-      </c>
-      <c r="I68" t="s">
-        <v>61</v>
-      </c>
-      <c r="J68" t="s">
-        <v>42</v>
-      </c>
-      <c r="K68" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" t="s">
-        <v>171</v>
       </c>
       <c r="M68" t="s">
         <v>53</v>
       </c>
       <c r="N68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O68" t="s">
         <v>65</v>
@@ -5874,7 +5824,7 @@
         <v>38</v>
       </c>
       <c r="S68" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T68" t="s">
         <v>40</v>
@@ -5883,27 +5833,27 @@
         <v>40</v>
       </c>
       <c r="V68" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="W68" t="s">
+        <v>83</v>
       </c>
       <c r="X68" t="s">
         <v>40</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
@@ -5911,38 +5861,76 @@
       <c r="F69" t="s">
         <v>29</v>
       </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s"/>
-      <c r="J69" t="s"/>
-      <c r="K69" t="s"/>
-      <c r="L69" t="s"/>
-      <c r="M69" t="s"/>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
-      <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
-      <c r="S69" t="s"/>
-      <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
-      <c r="V69" t="s"/>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69" t="s">
+        <v>30</v>
+      </c>
+      <c r="L69" t="s">
+        <v>81</v>
+      </c>
+      <c r="M69" t="s">
+        <v>53</v>
+      </c>
+      <c r="N69" t="s">
+        <v>59</v>
+      </c>
+      <c r="O69" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>32</v>
+      </c>
+      <c r="R69" t="s">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s">
+        <v>170</v>
+      </c>
+      <c r="X69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E70" t="s">
         <v>28</v>
@@ -5950,38 +5938,76 @@
       <c r="F70" t="s">
         <v>29</v>
       </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s"/>
-      <c r="J70" t="s"/>
-      <c r="K70" t="s"/>
-      <c r="L70" t="s"/>
-      <c r="M70" t="s"/>
-      <c r="N70" t="s"/>
-      <c r="O70" t="s"/>
-      <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
-      <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
-      <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
-      <c r="V70" t="s"/>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" t="s">
+        <v>58</v>
+      </c>
+      <c r="M70" t="s">
+        <v>53</v>
+      </c>
+      <c r="N70" t="s">
+        <v>173</v>
+      </c>
+      <c r="O70" t="s">
+        <v>36</v>
+      </c>
+      <c r="P70" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>32</v>
+      </c>
+      <c r="R70" t="s">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s">
+        <v>170</v>
+      </c>
+      <c r="X70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
         <v>175</v>
       </c>
-      <c r="B71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" t="s">
-        <v>167</v>
-      </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E71" t="s">
         <v>28</v>
@@ -5993,7 +6019,7 @@
         <v>30</v>
       </c>
       <c r="H71" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I71" t="s">
         <v>32</v>
@@ -6005,16 +6031,16 @@
         <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M71" t="s">
         <v>53</v>
       </c>
       <c r="N71" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="O71" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P71" t="s">
         <v>37</v>
@@ -6026,7 +6052,7 @@
         <v>38</v>
       </c>
       <c r="S71" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="T71" t="s">
         <v>40</v>
@@ -6038,27 +6064,24 @@
         <v>40</v>
       </c>
       <c r="W71" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="X71" t="s">
         <v>40</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E72" t="s">
         <v>28</v>
@@ -6070,25 +6093,25 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J72" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K72" t="s">
         <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M72" t="s">
         <v>53</v>
       </c>
       <c r="N72" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="O72" t="s">
         <v>65</v>
@@ -6103,7 +6126,7 @@
         <v>38</v>
       </c>
       <c r="S72" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="T72" t="s">
         <v>40</v>
@@ -6112,30 +6135,27 @@
         <v>40</v>
       </c>
       <c r="V72" t="s">
-        <v>40</v>
-      </c>
-      <c r="W72" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="X72" t="s">
         <v>40</v>
       </c>
       <c r="Y72" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
         <v>28</v>
@@ -6144,75 +6164,43 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I73" t="s">
         <v>32</v>
       </c>
-      <c r="J73" t="s">
-        <v>31</v>
-      </c>
-      <c r="K73" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" t="s">
-        <v>179</v>
-      </c>
-      <c r="M73" t="s">
-        <v>53</v>
-      </c>
-      <c r="N73" t="s">
-        <v>169</v>
-      </c>
-      <c r="O73" t="s">
-        <v>36</v>
-      </c>
-      <c r="P73" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" t="s">
-        <v>38</v>
-      </c>
-      <c r="S73" t="s">
-        <v>147</v>
-      </c>
-      <c r="T73" t="s">
-        <v>40</v>
-      </c>
-      <c r="U73" t="s">
-        <v>40</v>
-      </c>
-      <c r="V73" t="s">
-        <v>40</v>
-      </c>
-      <c r="W73" t="s">
-        <v>69</v>
-      </c>
-      <c r="X73" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>177</v>
-      </c>
+      <c r="J73" t="s"/>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="s"/>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="s"/>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
         <v>28</v>
@@ -6221,75 +6209,43 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="I74" t="s">
-        <v>61</v>
-      </c>
-      <c r="J74" t="s">
-        <v>152</v>
-      </c>
-      <c r="K74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" t="s">
-        <v>182</v>
-      </c>
-      <c r="M74" t="s">
-        <v>53</v>
-      </c>
-      <c r="N74" t="s">
-        <v>183</v>
-      </c>
-      <c r="O74" t="s">
-        <v>184</v>
-      </c>
-      <c r="P74" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>32</v>
-      </c>
-      <c r="R74" t="s">
-        <v>38</v>
-      </c>
-      <c r="S74" t="s">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s">
-        <v>40</v>
-      </c>
-      <c r="U74" t="s">
-        <v>46</v>
-      </c>
-      <c r="V74" t="s">
-        <v>46</v>
-      </c>
-      <c r="W74" t="s">
-        <v>47</v>
-      </c>
-      <c r="X74" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>48</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J74" t="s"/>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="s"/>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="s"/>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -6313,16 +6269,16 @@
         <v>30</v>
       </c>
       <c r="L75" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="M75" t="s">
         <v>53</v>
       </c>
       <c r="N75" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="O75" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P75" t="s">
         <v>37</v>
@@ -6334,7 +6290,7 @@
         <v>38</v>
       </c>
       <c r="S75" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T75" t="s">
         <v>40</v>
@@ -6343,7 +6299,7 @@
         <v>40</v>
       </c>
       <c r="V75" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W75" t="s">
         <v>69</v>
@@ -6351,19 +6307,22 @@
       <c r="X75" t="s">
         <v>40</v>
       </c>
+      <c r="Y75" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E76" t="s">
         <v>28</v>
@@ -6375,28 +6334,28 @@
         <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K76" t="s">
         <v>30</v>
       </c>
       <c r="L76" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="M76" t="s">
         <v>53</v>
       </c>
       <c r="N76" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="O76" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="P76" t="s">
         <v>37</v>
@@ -6408,72 +6367,72 @@
         <v>38</v>
       </c>
       <c r="S76" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="T76" t="s">
         <v>40</v>
       </c>
       <c r="U76" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V76" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W76" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="X76" t="s">
         <v>40</v>
       </c>
       <c r="Y76" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" t="s">
         <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s">
-        <v>94</v>
-      </c>
-      <c r="J77" t="s">
-        <v>42</v>
-      </c>
-      <c r="K77" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77" t="s">
-        <v>51</v>
       </c>
       <c r="M77" t="s">
         <v>53</v>
       </c>
       <c r="N77" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="O77" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="P77" t="s">
         <v>37</v>
@@ -6485,25 +6444,25 @@
         <v>38</v>
       </c>
       <c r="S77" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="T77" t="s">
         <v>40</v>
       </c>
       <c r="U77" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V77" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W77" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="X77" t="s">
         <v>40</v>
       </c>
       <c r="Y77" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6514,7 +6473,7 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -6532,25 +6491,25 @@
         <v>42</v>
       </c>
       <c r="I78" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K78" t="s">
         <v>30</v>
       </c>
       <c r="L78" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="M78" t="s">
         <v>53</v>
       </c>
       <c r="N78" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="O78" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="P78" t="s">
         <v>37</v>
@@ -6585,16 +6544,16 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
         <v>28</v>
@@ -6606,13 +6565,13 @@
         <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K79" t="s">
         <v>30</v>
@@ -6624,7 +6583,7 @@
         <v>53</v>
       </c>
       <c r="N79" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="O79" t="s">
         <v>36</v>
@@ -6645,33 +6604,30 @@
         <v>40</v>
       </c>
       <c r="U79" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V79" t="s">
         <v>46</v>
       </c>
       <c r="W79" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="X79" t="s">
         <v>40</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
@@ -6679,38 +6635,76 @@
       <c r="F80" t="s">
         <v>29</v>
       </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s"/>
-      <c r="J80" t="s"/>
-      <c r="K80" t="s"/>
-      <c r="L80" t="s"/>
-      <c r="M80" t="s"/>
-      <c r="N80" t="s"/>
-      <c r="O80" t="s"/>
-      <c r="P80" t="s"/>
-      <c r="Q80" t="s"/>
-      <c r="R80" t="s"/>
-      <c r="S80" t="s"/>
-      <c r="T80" t="s"/>
-      <c r="U80" t="s"/>
-      <c r="V80" t="s"/>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" t="s">
+        <v>94</v>
+      </c>
+      <c r="J80" t="s">
+        <v>42</v>
+      </c>
+      <c r="K80" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" t="s">
+        <v>51</v>
+      </c>
+      <c r="M80" t="s">
+        <v>53</v>
+      </c>
+      <c r="N80" t="s">
+        <v>90</v>
+      </c>
+      <c r="O80" t="s">
+        <v>98</v>
+      </c>
+      <c r="P80" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>32</v>
+      </c>
+      <c r="R80" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80" t="s">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s">
+        <v>46</v>
+      </c>
+      <c r="V80" t="s">
+        <v>46</v>
+      </c>
+      <c r="W80" t="s">
+        <v>47</v>
+      </c>
+      <c r="X80" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
         <v>28</v>
@@ -6725,7 +6719,7 @@
         <v>42</v>
       </c>
       <c r="I81" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J81" t="s">
         <v>42</v>
@@ -6734,7 +6728,7 @@
         <v>30</v>
       </c>
       <c r="L81" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="M81" t="s">
         <v>53</v>
@@ -6743,7 +6737,7 @@
         <v>90</v>
       </c>
       <c r="O81" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="P81" t="s">
         <v>37</v>
@@ -6778,16 +6772,16 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
         <v>28</v>
@@ -6802,7 +6796,7 @@
         <v>42</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="J82" t="s">
         <v>42</v>
@@ -6811,16 +6805,16 @@
         <v>30</v>
       </c>
       <c r="L82" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="M82" t="s">
         <v>53</v>
       </c>
       <c r="N82" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="O82" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="P82" t="s">
         <v>37</v>
@@ -6855,16 +6849,16 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E83" t="s">
         <v>28</v>
@@ -6872,38 +6866,76 @@
       <c r="F83" t="s">
         <v>29</v>
       </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s"/>
-      <c r="J83" t="s"/>
-      <c r="K83" t="s"/>
-      <c r="L83" t="s"/>
-      <c r="M83" t="s"/>
-      <c r="N83" t="s"/>
-      <c r="O83" t="s"/>
-      <c r="P83" t="s"/>
-      <c r="Q83" t="s"/>
-      <c r="R83" t="s"/>
-      <c r="S83" t="s"/>
-      <c r="T83" t="s"/>
-      <c r="U83" t="s"/>
-      <c r="V83" t="s"/>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
+      <c r="G83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" t="s">
+        <v>94</v>
+      </c>
+      <c r="J83" t="s">
+        <v>42</v>
+      </c>
+      <c r="K83" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" t="s">
+        <v>53</v>
+      </c>
+      <c r="N83" t="s">
+        <v>90</v>
+      </c>
+      <c r="O83" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>32</v>
+      </c>
+      <c r="R83" t="s">
+        <v>38</v>
+      </c>
+      <c r="S83" t="s">
+        <v>45</v>
+      </c>
+      <c r="T83" t="s">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s">
+        <v>46</v>
+      </c>
+      <c r="V83" t="s">
+        <v>46</v>
+      </c>
+      <c r="W83" t="s">
+        <v>47</v>
+      </c>
+      <c r="X83" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
         <v>28</v>
@@ -6911,9 +6943,15 @@
       <c r="F84" t="s">
         <v>29</v>
       </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s"/>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I84" t="s">
+        <v>94</v>
+      </c>
       <c r="J84" t="s"/>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -6933,16 +6971,16 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
         <v>28</v>
@@ -6957,22 +6995,22 @@
         <v>42</v>
       </c>
       <c r="I85" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="J85" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="K85" t="s">
         <v>30</v>
       </c>
       <c r="L85" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="M85" t="s">
         <v>53</v>
       </c>
       <c r="N85" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="O85" t="s">
         <v>65</v>
@@ -7016,7 +7054,7 @@
         <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
         <v>201</v>
@@ -7034,7 +7072,7 @@
         <v>42</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J86" t="s">
         <v>42</v>
@@ -7052,7 +7090,7 @@
         <v>203</v>
       </c>
       <c r="O86" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="P86" t="s">
         <v>37</v>
@@ -7061,7 +7099,7 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S86" t="s">
         <v>45</v>
@@ -7093,7 +7131,7 @@
         <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
         <v>204</v>
@@ -7105,62 +7143,30 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="I87" t="s">
         <v>32</v>
       </c>
-      <c r="J87" t="s">
-        <v>31</v>
-      </c>
-      <c r="K87" t="s">
-        <v>30</v>
-      </c>
-      <c r="L87" t="s">
-        <v>202</v>
-      </c>
-      <c r="M87" t="s">
-        <v>34</v>
-      </c>
-      <c r="N87" t="s">
-        <v>183</v>
-      </c>
-      <c r="O87" t="s">
-        <v>65</v>
-      </c>
-      <c r="P87" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>32</v>
-      </c>
-      <c r="R87" t="s">
-        <v>38</v>
-      </c>
-      <c r="S87" t="s">
-        <v>39</v>
-      </c>
-      <c r="T87" t="s">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s">
-        <v>69</v>
-      </c>
-      <c r="X87" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>73</v>
-      </c>
+      <c r="J87" t="s"/>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="s"/>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="s"/>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
@@ -7170,7 +7176,7 @@
         <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s">
         <v>205</v>
@@ -7182,62 +7188,30 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
       </c>
-      <c r="J88" t="s">
-        <v>31</v>
-      </c>
-      <c r="K88" t="s">
-        <v>30</v>
-      </c>
-      <c r="L88" t="s">
-        <v>51</v>
-      </c>
-      <c r="M88" t="s">
-        <v>112</v>
-      </c>
-      <c r="N88" t="s">
-        <v>35</v>
-      </c>
-      <c r="O88" t="s">
-        <v>36</v>
-      </c>
-      <c r="P88" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>32</v>
-      </c>
-      <c r="R88" t="s">
-        <v>38</v>
-      </c>
-      <c r="S88" t="s">
-        <v>39</v>
-      </c>
-      <c r="T88" t="s">
-        <v>40</v>
-      </c>
-      <c r="U88" t="s">
-        <v>40</v>
-      </c>
-      <c r="V88" t="s">
-        <v>40</v>
-      </c>
-      <c r="W88" t="s">
-        <v>69</v>
-      </c>
-      <c r="X88" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>73</v>
-      </c>
+      <c r="J88" t="s"/>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="s"/>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="s"/>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
@@ -7247,7 +7221,7 @@
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
         <v>206</v>
@@ -7262,28 +7236,28 @@
         <v>30</v>
       </c>
       <c r="H89" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I89" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="J89" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="K89" t="s">
         <v>30</v>
       </c>
       <c r="L89" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="M89" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="N89" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="O89" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="P89" t="s">
         <v>37</v>
@@ -7295,39 +7269,39 @@
         <v>38</v>
       </c>
       <c r="S89" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="T89" t="s">
         <v>40</v>
       </c>
       <c r="U89" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="V89" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W89" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="X89" t="s">
         <v>40</v>
       </c>
       <c r="Y89" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E90" t="s">
         <v>28</v>
@@ -7335,38 +7309,76 @@
       <c r="F90" t="s">
         <v>29</v>
       </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s"/>
-      <c r="J90" t="s"/>
-      <c r="K90" t="s"/>
-      <c r="L90" t="s"/>
-      <c r="M90" t="s"/>
-      <c r="N90" t="s"/>
-      <c r="O90" t="s"/>
-      <c r="P90" t="s"/>
-      <c r="Q90" t="s"/>
-      <c r="R90" t="s"/>
-      <c r="S90" t="s"/>
-      <c r="T90" t="s"/>
-      <c r="U90" t="s"/>
-      <c r="V90" t="s"/>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" t="s">
+        <v>50</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" t="s">
+        <v>210</v>
+      </c>
+      <c r="M90" t="s">
+        <v>53</v>
+      </c>
+      <c r="N90" t="s">
+        <v>211</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>32</v>
+      </c>
+      <c r="R90" t="s">
+        <v>96</v>
+      </c>
+      <c r="S90" t="s">
+        <v>45</v>
+      </c>
+      <c r="T90" t="s">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s">
+        <v>46</v>
+      </c>
+      <c r="V90" t="s">
+        <v>46</v>
+      </c>
+      <c r="W90" t="s">
+        <v>47</v>
+      </c>
+      <c r="X90" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
         <v>28</v>
@@ -7378,28 +7390,28 @@
         <v>30</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K91" t="s">
         <v>30</v>
       </c>
       <c r="L91" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="M91" t="s">
         <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="O91" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P91" t="s">
         <v>37</v>
@@ -7411,39 +7423,39 @@
         <v>38</v>
       </c>
       <c r="S91" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T91" t="s">
         <v>40</v>
       </c>
       <c r="U91" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V91" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W91" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="X91" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y91" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E92" t="s">
         <v>28</v>
@@ -7455,72 +7467,72 @@
         <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
         <v>30</v>
       </c>
       <c r="L92" t="s">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c r="M92" t="s">
         <v>112</v>
       </c>
       <c r="N92" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="O92" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="P92" t="s">
         <v>37</v>
       </c>
       <c r="Q92" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="R92" t="s">
         <v>38</v>
       </c>
       <c r="S92" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T92" t="s">
         <v>40</v>
       </c>
       <c r="U92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W92" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="X92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y92" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E93" t="s">
         <v>28</v>
@@ -7532,72 +7544,72 @@
         <v>30</v>
       </c>
       <c r="H93" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K93" t="s">
         <v>30</v>
       </c>
       <c r="L93" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="M93" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="N93" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="O93" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="P93" t="s">
         <v>37</v>
       </c>
       <c r="Q93" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="R93" t="s">
         <v>38</v>
       </c>
       <c r="S93" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T93" t="s">
         <v>40</v>
       </c>
       <c r="U93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W93" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="X93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y93" t="s">
-        <v>48</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
         <v>28</v>
@@ -7605,9 +7617,15 @@
       <c r="F94" t="s">
         <v>29</v>
       </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s"/>
+      <c r="G94" t="s">
+        <v>119</v>
+      </c>
+      <c r="H94" t="s">
+        <v>142</v>
+      </c>
+      <c r="I94" t="s">
+        <v>50</v>
+      </c>
       <c r="J94" t="s"/>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -7627,16 +7645,16 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E95" t="s">
         <v>28</v>
@@ -7663,7 +7681,7 @@
         <v>51</v>
       </c>
       <c r="M95" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="N95" t="s">
         <v>90</v>
@@ -7675,7 +7693,7 @@
         <v>37</v>
       </c>
       <c r="Q95" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="R95" t="s">
         <v>38</v>
@@ -7704,16 +7722,16 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E96" t="s">
         <v>28</v>
@@ -7737,16 +7755,16 @@
         <v>30</v>
       </c>
       <c r="L96" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="M96" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="N96" t="s">
         <v>90</v>
       </c>
       <c r="O96" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P96" t="s">
         <v>37</v>
@@ -7781,16 +7799,16 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E97" t="s">
         <v>28</v>
@@ -7814,16 +7832,16 @@
         <v>30</v>
       </c>
       <c r="L97" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="M97" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="N97" t="s">
         <v>90</v>
       </c>
       <c r="O97" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P97" t="s">
         <v>37</v>
@@ -7858,16 +7876,16 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E98" t="s">
         <v>28</v>
@@ -7876,75 +7894,43 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I98" t="s">
         <v>50</v>
       </c>
-      <c r="J98" t="s">
-        <v>42</v>
-      </c>
-      <c r="K98" t="s">
-        <v>30</v>
-      </c>
-      <c r="L98" t="s">
-        <v>219</v>
-      </c>
-      <c r="M98" t="s">
-        <v>34</v>
-      </c>
-      <c r="N98" t="s">
-        <v>90</v>
-      </c>
-      <c r="O98" t="s">
-        <v>184</v>
-      </c>
-      <c r="P98" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>50</v>
-      </c>
-      <c r="R98" t="s">
-        <v>38</v>
-      </c>
-      <c r="S98" t="s">
-        <v>45</v>
-      </c>
-      <c r="T98" t="s">
-        <v>40</v>
-      </c>
-      <c r="U98" t="s">
-        <v>46</v>
-      </c>
-      <c r="V98" t="s">
-        <v>46</v>
-      </c>
-      <c r="W98" t="s">
-        <v>47</v>
-      </c>
-      <c r="X98" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>48</v>
-      </c>
+      <c r="J98" t="s"/>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="s"/>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="s"/>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s"/>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s">
         <v>28</v>
@@ -7952,38 +7938,76 @@
       <c r="F99" t="s">
         <v>29</v>
       </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s"/>
-      <c r="J99" t="s"/>
-      <c r="K99" t="s"/>
-      <c r="L99" t="s"/>
-      <c r="M99" t="s"/>
-      <c r="N99" t="s"/>
-      <c r="O99" t="s"/>
-      <c r="P99" t="s"/>
-      <c r="Q99" t="s"/>
-      <c r="R99" t="s"/>
-      <c r="S99" t="s"/>
-      <c r="T99" t="s"/>
-      <c r="U99" t="s"/>
-      <c r="V99" t="s"/>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s">
+        <v>42</v>
+      </c>
+      <c r="I99" t="s">
+        <v>50</v>
+      </c>
+      <c r="J99" t="s">
+        <v>42</v>
+      </c>
+      <c r="K99" t="s">
+        <v>30</v>
+      </c>
+      <c r="L99" t="s">
+        <v>51</v>
+      </c>
+      <c r="M99" t="s">
+        <v>223</v>
+      </c>
+      <c r="N99" t="s">
+        <v>90</v>
+      </c>
+      <c r="O99" t="s">
+        <v>36</v>
+      </c>
+      <c r="P99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>50</v>
+      </c>
+      <c r="R99" t="s">
+        <v>38</v>
+      </c>
+      <c r="S99" t="s">
+        <v>45</v>
+      </c>
+      <c r="T99" t="s">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s">
+        <v>46</v>
+      </c>
+      <c r="V99" t="s">
+        <v>46</v>
+      </c>
+      <c r="W99" t="s">
+        <v>47</v>
+      </c>
+      <c r="X99" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E100" t="s">
         <v>28</v>
@@ -7991,25 +8015,307 @@
       <c r="F100" t="s">
         <v>29</v>
       </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s"/>
-      <c r="J100" t="s"/>
-      <c r="K100" t="s"/>
-      <c r="L100" t="s"/>
-      <c r="M100" t="s"/>
-      <c r="N100" t="s"/>
-      <c r="O100" t="s"/>
-      <c r="P100" t="s"/>
-      <c r="Q100" t="s"/>
-      <c r="R100" t="s"/>
-      <c r="S100" t="s"/>
-      <c r="T100" t="s"/>
-      <c r="U100" t="s"/>
-      <c r="V100" t="s"/>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
+      <c r="G100" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" t="s">
+        <v>42</v>
+      </c>
+      <c r="I100" t="s">
+        <v>50</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100" t="s">
+        <v>30</v>
+      </c>
+      <c r="L100" t="s">
+        <v>51</v>
+      </c>
+      <c r="M100" t="s">
+        <v>53</v>
+      </c>
+      <c r="N100" t="s">
+        <v>90</v>
+      </c>
+      <c r="O100" t="s">
+        <v>36</v>
+      </c>
+      <c r="P100" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>50</v>
+      </c>
+      <c r="R100" t="s">
+        <v>38</v>
+      </c>
+      <c r="S100" t="s">
+        <v>45</v>
+      </c>
+      <c r="T100" t="s">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s">
+        <v>46</v>
+      </c>
+      <c r="V100" t="s">
+        <v>46</v>
+      </c>
+      <c r="W100" t="s">
+        <v>47</v>
+      </c>
+      <c r="X100" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>42</v>
+      </c>
+      <c r="I101" t="s">
+        <v>50</v>
+      </c>
+      <c r="J101" t="s">
+        <v>42</v>
+      </c>
+      <c r="K101" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101" t="s">
+        <v>51</v>
+      </c>
+      <c r="M101" t="s">
+        <v>223</v>
+      </c>
+      <c r="N101" t="s">
+        <v>90</v>
+      </c>
+      <c r="O101" t="s">
+        <v>36</v>
+      </c>
+      <c r="P101" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>50</v>
+      </c>
+      <c r="R101" t="s">
+        <v>38</v>
+      </c>
+      <c r="S101" t="s">
+        <v>45</v>
+      </c>
+      <c r="T101" t="s">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s">
+        <v>46</v>
+      </c>
+      <c r="V101" t="s">
+        <v>46</v>
+      </c>
+      <c r="W101" t="s">
+        <v>47</v>
+      </c>
+      <c r="X101" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" t="s">
+        <v>42</v>
+      </c>
+      <c r="I102" t="s">
+        <v>50</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102" t="s">
+        <v>30</v>
+      </c>
+      <c r="L102" t="s">
+        <v>227</v>
+      </c>
+      <c r="M102" t="s">
+        <v>34</v>
+      </c>
+      <c r="N102" t="s">
+        <v>90</v>
+      </c>
+      <c r="O102" t="s">
+        <v>192</v>
+      </c>
+      <c r="P102" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>50</v>
+      </c>
+      <c r="R102" t="s">
+        <v>38</v>
+      </c>
+      <c r="S102" t="s">
+        <v>45</v>
+      </c>
+      <c r="T102" t="s">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s">
+        <v>46</v>
+      </c>
+      <c r="V102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W102" t="s">
+        <v>47</v>
+      </c>
+      <c r="X102" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
+      <c r="H103" t="s">
+        <v>142</v>
+      </c>
+      <c r="I103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J103" t="s"/>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="s"/>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="s"/>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s"/>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
+      <c r="H104" t="s">
+        <v>142</v>
+      </c>
+      <c r="I104" t="s">
+        <v>50</v>
+      </c>
+      <c r="J104" t="s"/>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="s"/>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="s"/>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
